--- a/results/NpmDemo_DiffReport.xlsx
+++ b/results/NpmDemo_DiffReport.xlsx
@@ -39,6 +39,39 @@
   </x:si>
   <x:si>
     <x:t>LicenseUrl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nuget</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Microsoft.AspNetCore.SpaServices.Extensions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNCHANGED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.0.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIT</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>Microsoft.Extensions.FileProviders.Abstractions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.0.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Microsoft.Extensions.FileProviders.Physical</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Microsoft.Extensions.FileSystemGlobbing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Microsoft.Extensions.Primitives</x:t>
   </x:si>
   <x:si>
     <x:t>Version</x:t>
@@ -415,16 +448,15 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H1"/>
+  <x:dimension ref="A1:H6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="16.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.567768" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.853482" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.567768" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="44.139196" style="0" customWidth="1"/>
+    <x:col min="3" max="4" width="12.567768" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="11.996339" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.853482" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="9.567768" style="0" customWidth="1"/>
@@ -455,6 +487,136 @@
       </x:c>
       <x:c r="H1" s="1" t="s">
         <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -471,14 +633,14 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E1"/>
+  <x:dimension ref="A1:E6"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="16.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.567768" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="44.139196" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="7.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="7.424911" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="9.853482" style="0" customWidth="1"/>
@@ -492,13 +654,98 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
         <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/results/NpmDemo_DiffReport.xlsx
+++ b/results/NpmDemo_DiffReport.xlsx
@@ -41,15 +41,48 @@
     <x:t>LicenseUrl</x:t>
   </x:si>
   <x:si>
+    <x:t>npm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>js-tokens</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNCHANGED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.0.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNKNOWN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.npmjs.com/package/js-tokens</x:t>
+  </x:si>
+  <x:si>
+    <x:t>loose-envify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.npmjs.com/package/loose-envify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>react</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18.2.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.npmjs.com/package/react</x:t>
+  </x:si>
+  <x:si>
     <x:t>nuget</x:t>
   </x:si>
   <x:si>
     <x:t>Microsoft.AspNetCore.SpaServices.Extensions</x:t>
   </x:si>
   <x:si>
-    <x:t>UNCHANGED</x:t>
-  </x:si>
-  <x:si>
     <x:t>8.0.23</x:t>
   </x:si>
   <x:si>
@@ -72,6 +105,30 @@
   </x:si>
   <x:si>
     <x:t>Microsoft.Extensions.Primitives</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Node.js</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.12.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://raw.github.com/joyent/node/v0.12.7/LICENSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoGit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.1.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Npm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.5.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://raw.githubusercontent.com/npm/npm/v3.5.2/LICENSE</x:t>
   </x:si>
   <x:si>
     <x:t>Version</x:t>
@@ -87,7 +144,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -100,6 +157,14 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FFFFFFFF"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:u val="single"/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF0000FF"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
@@ -136,21 +201,28 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -448,7 +520,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H6"/>
+  <x:dimension ref="A1:H12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -459,8 +531,8 @@
     <x:col min="3" max="4" width="12.567768" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="11.996339" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.853482" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.567768" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="9.853482" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="10.853482" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="58.424911" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:8" s="1" customFormat="1">
@@ -511,7 +583,7 @@
       <x:c r="G2" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
+      <x:c r="H2" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -537,8 +609,8 @@
       <x:c r="G3" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>13</x:v>
+      <x:c r="H3" s="2" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
@@ -546,80 +618,243 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>13</x:v>
+      <x:c r="H4" s="2" t="s">
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="A9" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8">
+      <x:c r="A10" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H10" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8">
+      <x:c r="A11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8">
+      <x:c r="A12" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H12" s="2" t="s">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="H2" r:id="rId6"/>
+    <x:hyperlink ref="H3" r:id="rId7"/>
+    <x:hyperlink ref="H4" r:id="rId8"/>
+    <x:hyperlink ref="H10" r:id="rId9"/>
+    <x:hyperlink ref="H12" r:id="rId10"/>
+  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -633,7 +868,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E6"/>
+  <x:dimension ref="A1:E12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -642,8 +877,8 @@
     <x:col min="1" max="1" width="16.282054" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="44.139196" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="7.710625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="7.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="9.853482" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.853482" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="58.424911" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5" s="1" customFormat="1">
@@ -654,10 +889,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
         <x:v>7</x:v>
@@ -676,7 +911,7 @@
       <x:c r="D2" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="E2" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
@@ -693,8 +928,8 @@
       <x:c r="D3" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>13</x:v>
+      <x:c r="E3" s="2" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -702,53 +937,162 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>13</x:v>
+      <x:c r="E4" s="2" t="s">
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E10" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E12" s="2" t="s">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="E2" r:id="rId11"/>
+    <x:hyperlink ref="E3" r:id="rId12"/>
+    <x:hyperlink ref="E4" r:id="rId13"/>
+    <x:hyperlink ref="E10" r:id="rId14"/>
+    <x:hyperlink ref="E12" r:id="rId15"/>
+  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/results/NpmDemo_DiffReport.xlsx
+++ b/results/NpmDemo_DiffReport.xlsx
@@ -68,6 +68,60 @@
     <x:t>https://www.npmjs.com/package/loose-envify</x:t>
   </x:si>
   <x:si>
+    <x:t>nuget</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Microsoft.AspNetCore.SpaServices.Extensions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.0.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIT</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>Microsoft.Extensions.FileProviders.Abstractions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8.0.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Microsoft.Extensions.FileProviders.Physical</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Microsoft.Extensions.FileSystemGlobbing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Microsoft.Extensions.Primitives</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Node.js</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.12.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://raw.github.com/joyent/node/v0.12.7/LICENSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoGit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.1.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Npm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.5.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://raw.githubusercontent.com/npm/npm/v3.5.2/LICENSE</x:t>
+  </x:si>
+  <x:si>
     <x:t>react</x:t>
   </x:si>
   <x:si>
@@ -75,60 +129,6 @@
   </x:si>
   <x:si>
     <x:t>https://www.npmjs.com/package/react</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nuget</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Microsoft.AspNetCore.SpaServices.Extensions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8.0.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MIT</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>Microsoft.Extensions.FileProviders.Abstractions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8.0.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Microsoft.Extensions.FileProviders.Physical</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Microsoft.Extensions.FileSystemGlobbing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Microsoft.Extensions.Primitives</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Node.js</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.12.7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://raw.github.com/joyent/node/v0.12.7/LICENSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NoGit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.1.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Npm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.5.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://raw.githubusercontent.com/npm/npm/v3.5.2/LICENSE</x:t>
   </x:si>
   <x:si>
     <x:t>Version</x:t>
@@ -615,163 +615,163 @@
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H4" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H9" s="2" t="s">
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>30</x:v>
@@ -791,39 +791,39 @@
       <x:c r="G10" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="H10" s="2" t="s">
-        <x:v>32</x:v>
+      <x:c r="H10" s="0" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H11" s="2" t="s">
         <x:v>34</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>35</x:v>
@@ -851,8 +851,8 @@
   <x:hyperlinks>
     <x:hyperlink ref="H2" r:id="rId6"/>
     <x:hyperlink ref="H3" r:id="rId7"/>
-    <x:hyperlink ref="H4" r:id="rId8"/>
-    <x:hyperlink ref="H10" r:id="rId9"/>
+    <x:hyperlink ref="H9" r:id="rId8"/>
+    <x:hyperlink ref="H11" r:id="rId9"/>
     <x:hyperlink ref="H12" r:id="rId10"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -937,152 +937,152 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
         <x:v>21</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="E10" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="E12" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/results/NpmDemo_DiffReport.xlsx
+++ b/results/NpmDemo_DiffReport.xlsx
@@ -41,6 +41,45 @@
     <x:t>LicenseUrl</x:t>
   </x:si>
   <x:si>
+    <x:t>nuget</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ClosedXML</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADDED</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>0.104.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ClosedXML.Parser</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DocumentFormat.OpenXml</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.0.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DocumentFormat.OpenXml.Framework</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExcelNumberFormat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.0</x:t>
+  </x:si>
+  <x:si>
     <x:t>npm</x:t>
   </x:si>
   <x:si>
@@ -59,6 +98,21 @@
     <x:t>https://www.npmjs.com/package/js-tokens</x:t>
   </x:si>
   <x:si>
+    <x:t>LibGit2Sharp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.31.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://aka.ms/deprecateLicenseUrl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LibGit2Sharp.NativeBinaries</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.0.323</x:t>
+  </x:si>
+  <x:si>
     <x:t>loose-envify</x:t>
   </x:si>
   <x:si>
@@ -68,21 +122,12 @@
     <x:t>https://www.npmjs.com/package/loose-envify</x:t>
   </x:si>
   <x:si>
-    <x:t>nuget</x:t>
-  </x:si>
-  <x:si>
     <x:t>Microsoft.AspNetCore.SpaServices.Extensions</x:t>
   </x:si>
   <x:si>
     <x:t>8.0.23</x:t>
   </x:si>
   <x:si>
-    <x:t>MIT</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
     <x:t>Microsoft.Extensions.FileProviders.Abstractions</x:t>
   </x:si>
   <x:si>
@@ -98,9 +143,18 @@
     <x:t>Microsoft.Extensions.Primitives</x:t>
   </x:si>
   <x:si>
+    <x:t>VERSION_CHANGED</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10.0.2</x:t>
+  </x:si>
+  <x:si>
     <x:t>Node.js</x:t>
   </x:si>
   <x:si>
+    <x:t>REMOVED</x:t>
+  </x:si>
+  <x:si>
     <x:t>0.12.7</x:t>
   </x:si>
   <x:si>
@@ -122,6 +176,12 @@
     <x:t>https://raw.githubusercontent.com/npm/npm/v3.5.2/LICENSE</x:t>
   </x:si>
   <x:si>
+    <x:t>RBush</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.2.0</x:t>
+  </x:si>
+  <x:si>
     <x:t>react</x:t>
   </x:si>
   <x:si>
@@ -129,6 +189,18 @@
   </x:si>
   <x:si>
     <x:t>https://www.npmjs.com/package/react</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SixLabors.Fonts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.0.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apache-2.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>System.IO.Packaging</x:t>
   </x:si>
   <x:si>
     <x:t>Version</x:t>
@@ -520,7 +592,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H12"/>
+  <x:dimension ref="A1:H22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -528,7 +600,8 @@
   <x:cols>
     <x:col min="1" max="1" width="16.282054" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="44.139196" style="0" customWidth="1"/>
-    <x:col min="3" max="4" width="12.567768" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="18.853482" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.567768" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="11.996339" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.853482" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="10.853482" style="0" customWidth="1"/>
@@ -575,16 +648,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H2" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
@@ -598,172 +671,172 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H3" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H7" s="2" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H8" s="2" t="s">
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H9" s="2" t="s">
         <x:v>29</x:v>
@@ -771,54 +844,54 @@
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H10" s="2" t="s">
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H11" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
@@ -826,34 +899,296 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8">
+      <x:c r="A13" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8">
+      <x:c r="A14" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:8">
+      <x:c r="A15" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:8">
+      <x:c r="A16" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8">
+      <x:c r="A17" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:8">
+      <x:c r="A18" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:8">
+      <x:c r="A19" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H12" s="2" t="s">
-        <x:v>37</x:v>
+      <x:c r="D19" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:8">
+      <x:c r="A20" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H20" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:8">
+      <x:c r="A21" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:8">
+      <x:c r="A22" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="H2" r:id="rId6"/>
-    <x:hyperlink ref="H3" r:id="rId7"/>
+    <x:hyperlink ref="H7" r:id="rId6"/>
+    <x:hyperlink ref="H8" r:id="rId7"/>
     <x:hyperlink ref="H9" r:id="rId8"/>
-    <x:hyperlink ref="H11" r:id="rId9"/>
-    <x:hyperlink ref="H12" r:id="rId10"/>
+    <x:hyperlink ref="H10" r:id="rId9"/>
+    <x:hyperlink ref="H16" r:id="rId10"/>
+    <x:hyperlink ref="H18" r:id="rId11"/>
+    <x:hyperlink ref="H20" r:id="rId12"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -868,7 +1203,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E12"/>
+  <x:dimension ref="A1:E19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -878,7 +1213,7 @@
     <x:col min="2" max="2" width="44.139196" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="7.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="10.853482" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="58.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="43.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5" s="1" customFormat="1">
@@ -889,10 +1224,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
         <x:v>7</x:v>
@@ -900,143 +1235,143 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E2" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>27</x:v>
@@ -1045,7 +1380,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E10" s="2" t="s">
         <x:v>29</x:v>
@@ -1053,7 +1388,7 @@
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>30</x:v>
@@ -1062,36 +1397,155 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E11" s="2" t="s">
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="A13" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="A14" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="A15" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="A16" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="A18" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="A19" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="E2" r:id="rId11"/>
-    <x:hyperlink ref="E3" r:id="rId12"/>
-    <x:hyperlink ref="E4" r:id="rId13"/>
-    <x:hyperlink ref="E10" r:id="rId14"/>
-    <x:hyperlink ref="E12" r:id="rId15"/>
+    <x:hyperlink ref="E2" r:id="rId13"/>
+    <x:hyperlink ref="E3" r:id="rId14"/>
+    <x:hyperlink ref="E4" r:id="rId15"/>
+    <x:hyperlink ref="E10" r:id="rId16"/>
+    <x:hyperlink ref="E11" r:id="rId17"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
